--- a/www.eia.gov/electricity/monthly/xls/table_4_01continued.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_01continued.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
-  <si>
-    <t>Table 4.1. Receipts, Average Cost, and Quality of Fossil Fuels: Total (All Sectors), 2006 - October 2016 (continued)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+  <si>
+    <t>Table 4.1. Receipts, Average Cost, and Quality of Fossil Fuels: Total (All Sectors), 2006 - November 2016 (continued)</t>
   </si>
   <si>
     <t/>
@@ -145,7 +145,7 @@
     <t>Year to Date</t>
   </si>
   <si>
-    <t>Rolling 12 Months Ending in October</t>
+    <t>Rolling 12 Months Ending in November</t>
   </si>
   <si>
     <t>Displayed values of zero may represent small values that round to zero.
@@ -1114,7 +1114,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3112,270 +3112,311 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="12">
+        <v>9364</v>
+      </c>
+      <c r="C53" s="12">
+        <v>333</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E53" s="13">
+        <v>63.6</v>
+      </c>
+      <c r="F53" s="13">
+        <v>5.69</v>
+      </c>
+      <c r="G53" s="14">
+        <v>87.4</v>
+      </c>
+      <c r="H53" s="12">
+        <v>721028</v>
+      </c>
+      <c r="I53" s="12">
+        <v>697714</v>
+      </c>
+      <c r="J53" s="13">
+        <v>3.02</v>
+      </c>
+      <c r="K53" s="13">
+        <v>3.12</v>
+      </c>
+      <c r="L53" s="14">
+        <v>89.7</v>
+      </c>
+      <c r="M53" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B54" s="12">
-        <v>117993</v>
-      </c>
-      <c r="C54" s="12">
-        <v>4164</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1.99</v>
-      </c>
-      <c r="E54" s="13">
-        <v>56.47</v>
-      </c>
-      <c r="F54" s="13">
-        <v>5.59</v>
-      </c>
-      <c r="G54" s="14">
-        <v>87.4</v>
-      </c>
-      <c r="H54" s="12">
-        <v>7340513</v>
-      </c>
-      <c r="I54" s="12">
-        <v>7134561</v>
-      </c>
-      <c r="J54" s="13">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K54" s="13">
-        <v>5.25</v>
-      </c>
-      <c r="L54" s="14">
-        <v>89.7</v>
-      </c>
-      <c r="M54" s="13">
-        <v>3.35</v>
-      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="12">
-        <v>115513</v>
+        <v>130210</v>
       </c>
       <c r="C55" s="12">
-        <v>4075</v>
+        <v>4595</v>
       </c>
       <c r="D55" s="13">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="E55" s="13">
-        <v>53.63</v>
+        <v>56.11</v>
       </c>
       <c r="F55" s="13">
-        <v>5.17</v>
+        <v>5.58</v>
       </c>
       <c r="G55" s="14">
-        <v>91.4</v>
+        <v>89.1</v>
       </c>
       <c r="H55" s="12">
-        <v>8571566</v>
+        <v>7989074</v>
       </c>
       <c r="I55" s="12">
-        <v>8292381</v>
+        <v>7763254</v>
       </c>
       <c r="J55" s="13">
-        <v>3.34</v>
+        <v>5.05</v>
       </c>
       <c r="K55" s="13">
-        <v>3.46</v>
+        <v>5.2</v>
       </c>
       <c r="L55" s="14">
-        <v>90</v>
+        <v>89.6</v>
       </c>
       <c r="M55" s="13">
-        <v>2.7</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B56" s="12">
+        <v>127631</v>
+      </c>
+      <c r="C56" s="12">
+        <v>4504</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1.86</v>
+      </c>
+      <c r="E56" s="13">
+        <v>52.8</v>
+      </c>
+      <c r="F56" s="13">
+        <v>5.21</v>
+      </c>
+      <c r="G56" s="14">
+        <v>93.3</v>
+      </c>
+      <c r="H56" s="12">
+        <v>9354902</v>
+      </c>
+      <c r="I56" s="12">
+        <v>9050883</v>
+      </c>
+      <c r="J56" s="13">
+        <v>3.29</v>
+      </c>
+      <c r="K56" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="L56" s="14">
+        <v>89.9</v>
+      </c>
+      <c r="M56" s="13">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>2016</v>
       </c>
-      <c r="B56" s="12">
-        <v>97420</v>
-      </c>
-      <c r="C56" s="12">
-        <v>3470</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1.54</v>
-      </c>
-      <c r="E56" s="13">
-        <v>43.35</v>
-      </c>
-      <c r="F56" s="13">
-        <v>5.37</v>
-      </c>
-      <c r="G56" s="14">
-        <v>77.5</v>
-      </c>
-      <c r="H56" s="12">
-        <v>9135858</v>
-      </c>
-      <c r="I56" s="12">
-        <v>8836876</v>
-      </c>
-      <c r="J56" s="13">
-        <v>2.78</v>
-      </c>
-      <c r="K56" s="13">
-        <v>2.87</v>
-      </c>
-      <c r="L56" s="14">
+      <c r="B57" s="12">
+        <v>106785</v>
+      </c>
+      <c r="C57" s="12">
+        <v>3803</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1.61</v>
+      </c>
+      <c r="E57" s="13">
+        <v>45.12</v>
+      </c>
+      <c r="F57" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="G57" s="14">
+        <v>78.2</v>
+      </c>
+      <c r="H57" s="12">
+        <v>9856886</v>
+      </c>
+      <c r="I57" s="12">
+        <v>9534590</v>
+      </c>
+      <c r="J57" s="13">
+        <v>2.79</v>
+      </c>
+      <c r="K57" s="13">
+        <v>2.89</v>
+      </c>
+      <c r="L57" s="14">
         <v>90.2</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M57" s="13">
         <v>2.44</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B58" s="12">
-        <v>144830</v>
-      </c>
-      <c r="C58" s="12">
-        <v>5106</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1.9</v>
-      </c>
-      <c r="E58" s="13">
-        <v>53.96</v>
-      </c>
-      <c r="F58" s="13">
-        <v>5.22</v>
-      </c>
-      <c r="G58" s="14">
-        <v>94.7</v>
-      </c>
-      <c r="H58" s="12">
-        <v>9910339</v>
-      </c>
-      <c r="I58" s="12">
-        <v>9589244</v>
-      </c>
-      <c r="J58" s="13">
-        <v>3.49</v>
-      </c>
-      <c r="K58" s="13">
-        <v>3.61</v>
-      </c>
-      <c r="L58" s="14">
-        <v>89.9</v>
-      </c>
-      <c r="M58" s="13">
-        <v>2.76</v>
-      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B59" s="12">
+        <v>144730</v>
+      </c>
+      <c r="C59" s="12">
+        <v>5104</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1.88</v>
+      </c>
+      <c r="E59" s="13">
+        <v>53.31</v>
+      </c>
+      <c r="F59" s="13">
+        <v>5.23</v>
+      </c>
+      <c r="G59" s="14">
+        <v>95.2</v>
+      </c>
+      <c r="H59" s="12">
+        <v>10045114</v>
+      </c>
+      <c r="I59" s="12">
+        <v>9719053</v>
+      </c>
+      <c r="J59" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="K59" s="13">
+        <v>3.47</v>
+      </c>
+      <c r="L59" s="14">
+        <v>89.9</v>
+      </c>
+      <c r="M59" s="13">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
         <v>2016</v>
       </c>
-      <c r="B59" s="12">
-        <v>120575</v>
-      </c>
-      <c r="C59" s="12">
-        <v>4292</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="B60" s="12">
+        <v>117822</v>
+      </c>
+      <c r="C60" s="12">
+        <v>4196</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>5.43</v>
       </c>
-      <c r="G59" s="14">
-        <v>82.4</v>
-      </c>
-      <c r="H59" s="12">
-        <v>10737795</v>
-      </c>
-      <c r="I59" s="12">
-        <v>10387075</v>
-      </c>
-      <c r="J59" s="13">
-        <v>2.75</v>
-      </c>
-      <c r="K59" s="13">
-        <v>2.85</v>
-      </c>
-      <c r="L59" s="14">
+      <c r="G60" s="14">
+        <v>80.3</v>
+      </c>
+      <c r="H60" s="12">
+        <v>10675486</v>
+      </c>
+      <c r="I60" s="12">
+        <v>10326287</v>
+      </c>
+      <c r="J60" s="13">
+        <v>2.78</v>
+      </c>
+      <c r="K60" s="13">
+        <v>2.87</v>
+      </c>
+      <c r="L60" s="14">
         <v>90.1</v>
       </c>
-      <c r="M59" s="13" t="s">
+      <c r="M60" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="351.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
+    <row r="61" spans="1:13" ht="351.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A61:M61"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A16:M16"/>
     <mergeCell ref="A29:M29"/>
     <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A53:M53"/>
-    <mergeCell ref="A57:M57"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A58:M58"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:L2"/>
